--- a/work_with_prepared_data/datas/control/16.03.2023_e_36.xlsx
+++ b/work_with_prepared_data/datas/control/16.03.2023_e_36.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\neuro_stats\work_with_prepared_data\datas\control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scripts\neuro_stats\work_with_prepared_data\datas\control\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17415"/>
   </bookViews>
   <sheets>
     <sheet name="Table n°1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
     <t>2,2 - 1,9 -1,4</t>
   </si>
   <si>
-    <t>e = 36 гр.</t>
-  </si>
-  <si>
     <t>Метка</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>2,8 - 2,7 - 1,9</t>
+  </si>
+  <si>
+    <t>e = 36 Гр.</t>
   </si>
 </sst>
 </file>
@@ -597,293 +597,291 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6328125" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" customWidth="1"/>
-    <col min="7" max="7" width="17.6328125" customWidth="1"/>
-    <col min="8" max="8" width="21.08984375" customWidth="1"/>
-    <col min="9" max="10" width="17.1796875" customWidth="1"/>
-    <col min="11" max="11" width="21.54296875" customWidth="1"/>
-    <col min="12" max="12" width="21.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="9" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
         <v>41</v>
       </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" t="s">
-        <v>73</v>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
       </c>
       <c r="G8" t="s">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
